--- a/biology/Botanique/Ipomoea_perrieri/Ipomoea_perrieri.xlsx
+++ b/biology/Botanique/Ipomoea_perrieri/Ipomoea_perrieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea perrieri est une espèce de plantes de la famille des Convolvulaceae, endémique de Madagascar, en danger critique d’extinction.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’épithète spécifique perrieri rend hommage au botaniste Henri Perrier de La Bâthie qui a collecté le spécimen type nomenclatural à Madagascar en mars 1919[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’épithète spécifique perrieri rend hommage au botaniste Henri Perrier de La Bâthie qui a collecté le spécimen type nomenclatural à Madagascar en mars 1919.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’espèce a été décrite en 1993 par Thierry Deroin[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’espèce a été décrite en 1993 par Thierry Deroin.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea perrieri est endémique de Madagascar, où elle pousse dans la province de Fianarantsoa de 1 000 à 1 499 m d’altitude, dans les climats sub-humides[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea perrieri est endémique de Madagascar, où elle pousse dans la province de Fianarantsoa de 1 000 à 1 499 m d’altitude, dans les climats sub-humides.
 </t>
         </is>
       </c>
@@ -604,10 +622,12 @@
           <t>Conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea perrieri est classée espèce en danger critique d’extinction par l’Union internationale pour la conservation de la nature[3].
-Cette espèce a une zone d'occupation (AOO, area of occupancy) de 9 km2 et ne se trouve que dans une seule sous-population, à l’extérieur d’une zone protégée. Cette espèce est menacée en raison des incendies et de la fragmentation de l’habitat. Elle est donc évaluée comme étant en danger critique d’extinction[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea perrieri est classée espèce en danger critique d’extinction par l’Union internationale pour la conservation de la nature.
+Cette espèce a une zone d'occupation (AOO, area of occupancy) de 9 km2 et ne se trouve que dans une seule sous-population, à l’extérieur d’une zone protégée. Cette espèce est menacée en raison des incendies et de la fragmentation de l’habitat. Elle est donc évaluée comme étant en danger critique d’extinction.
 </t>
         </is>
       </c>
